--- a/artfynd/A 3540-2022.xlsx
+++ b/artfynd/A 3540-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>335208</v>
+        <v>393360</v>
       </c>
       <c r="B2" t="n">
-        <v>89388</v>
+        <v>89832</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503400.1668687108</v>
+        <v>503663.2819856483</v>
       </c>
       <c r="R2" t="n">
-        <v>7097087.468780059</v>
+        <v>7097147.882865341</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>393361</v>
+        <v>335208</v>
       </c>
       <c r="B3" t="n">
-        <v>89832</v>
+        <v>89388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503312.8822569048</v>
+        <v>503400.1668687108</v>
       </c>
       <c r="R3" t="n">
-        <v>7096945.197971026</v>
+        <v>7097087.468780059</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1561195</v>
+        <v>393361</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>89832</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503459.5351062054</v>
+        <v>503312.8822569048</v>
       </c>
       <c r="R4" t="n">
-        <v>7097040.142521238</v>
+        <v>7096945.197971026</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>883436</v>
+        <v>1561195</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503601.4553612238</v>
+        <v>503459.5351062054</v>
       </c>
       <c r="R5" t="n">
-        <v>7097420.731937714</v>
+        <v>7097040.142521238</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>393360</v>
+        <v>883436</v>
       </c>
       <c r="B6" t="n">
-        <v>89832</v>
+        <v>78570</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503663.2819856483</v>
+        <v>503601.4553612238</v>
       </c>
       <c r="R6" t="n">
-        <v>7097147.882865341</v>
+        <v>7097420.731937714</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>

--- a/artfynd/A 3540-2022.xlsx
+++ b/artfynd/A 3540-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>393360</v>
+        <v>335208</v>
       </c>
       <c r="B2" t="n">
-        <v>89832</v>
+        <v>89388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503663.2819856483</v>
+        <v>503400.1668687108</v>
       </c>
       <c r="R2" t="n">
-        <v>7097147.882865341</v>
+        <v>7097087.468780059</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>335208</v>
+        <v>393361</v>
       </c>
       <c r="B3" t="n">
-        <v>89388</v>
+        <v>89832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503400.1668687108</v>
+        <v>503312.8822569048</v>
       </c>
       <c r="R3" t="n">
-        <v>7097087.468780059</v>
+        <v>7096945.197971026</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>393361</v>
+        <v>1561195</v>
       </c>
       <c r="B4" t="n">
-        <v>89832</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503312.8822569048</v>
+        <v>503459.5351062054</v>
       </c>
       <c r="R4" t="n">
-        <v>7096945.197971026</v>
+        <v>7097040.142521238</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1561195</v>
+        <v>883436</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503459.5351062054</v>
+        <v>503601.4553612238</v>
       </c>
       <c r="R5" t="n">
-        <v>7097040.142521238</v>
+        <v>7097420.731937714</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>883436</v>
+        <v>393360</v>
       </c>
       <c r="B6" t="n">
-        <v>78570</v>
+        <v>89832</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503601.4553612238</v>
+        <v>503663.2819856483</v>
       </c>
       <c r="R6" t="n">
-        <v>7097420.731937714</v>
+        <v>7097147.882865341</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
